--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -540,10 +540,10 @@
         <v>0.489044</v>
       </c>
       <c r="I2">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J2">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="N2">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="O2">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="P2">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="Q2">
-        <v>0.01859035560133333</v>
+        <v>0.01514455157733333</v>
       </c>
       <c r="R2">
-        <v>0.167313200412</v>
+        <v>0.136300964196</v>
       </c>
       <c r="S2">
-        <v>0.07027660747006093</v>
+        <v>0.02387035441516427</v>
       </c>
       <c r="T2">
-        <v>0.07027660747006093</v>
+        <v>0.02387035441516426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.489044</v>
       </c>
       <c r="I3">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J3">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>0.876414</v>
       </c>
       <c r="O3">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="P3">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="Q3">
         <v>0.04762277869066667</v>
@@ -632,10 +632,10 @@
         <v>0.4286050082160001</v>
       </c>
       <c r="S3">
-        <v>0.1800270740618607</v>
+        <v>0.07506148992107099</v>
       </c>
       <c r="T3">
-        <v>0.1800270740618607</v>
+        <v>0.07506148992107101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.489044</v>
       </c>
       <c r="I4">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J4">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="N4">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="O4">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="P4">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="Q4">
-        <v>0.1956048305177778</v>
+        <v>0.3579096226493333</v>
       </c>
       <c r="R4">
-        <v>1.76044347466</v>
+        <v>3.221186603844</v>
       </c>
       <c r="S4">
-        <v>0.7394395345810244</v>
+        <v>0.5641256195412309</v>
       </c>
       <c r="T4">
-        <v>0.7394395345810244</v>
+        <v>0.5641256195412307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H5">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I5">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J5">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="N5">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="O5">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="P5">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="Q5">
-        <v>0.0001926532626666667</v>
+        <v>0.007695929681666666</v>
       </c>
       <c r="R5">
-        <v>0.001733879364</v>
+        <v>0.06926336713499999</v>
       </c>
       <c r="S5">
-        <v>0.0007282818042103958</v>
+        <v>0.01213007649104078</v>
       </c>
       <c r="T5">
-        <v>0.0007282818042103958</v>
+        <v>0.01213007649104078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H6">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I6">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J6">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.876414</v>
       </c>
       <c r="O6">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="P6">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="Q6">
-        <v>0.0004935184613333334</v>
+        <v>0.02420022502333333</v>
       </c>
       <c r="R6">
-        <v>0.004441666152</v>
+        <v>0.21780202521</v>
       </c>
       <c r="S6">
-        <v>0.001865634199265322</v>
+        <v>0.03814361523244321</v>
       </c>
       <c r="T6">
-        <v>0.001865634199265322</v>
+        <v>0.03814361523244322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H7">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I7">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J7">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="N7">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="O7">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="P7">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="Q7">
-        <v>0.002027067668888889</v>
+        <v>0.1818771110016667</v>
       </c>
       <c r="R7">
-        <v>0.01824360902</v>
+        <v>1.636893999015</v>
       </c>
       <c r="S7">
-        <v>0.007662867883578229</v>
+        <v>0.2866688443990499</v>
       </c>
       <c r="T7">
-        <v>0.007662867883578229</v>
+        <v>0.2866688443990499</v>
       </c>
     </row>
   </sheetData>
